--- a/results_small/Res_Simulate_data_small_compromise.xlsx
+++ b/results_small/Res_Simulate_data_small_compromise.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACAD7"/>
-        <bgColor rgb="FFCACAD7"/>
+        <fgColor rgb="FFBC94E6"/>
+        <bgColor rgb="FFBC94E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -66,20 +66,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC94E6"/>
-        <bgColor rgb="FFBC94E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B3DC"/>
         <bgColor rgb="FFE6B3DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACAD7"/>
+        <bgColor rgb="FFCACAD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.00740573106646</v>
+        <v>-7.432762067575672</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.659255027771</v>
+        <v>609.3923499584198</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.815477484003453e-09</v>
+        <v>8.602974696707147e-05</v>
       </c>
     </row>
     <row r="5">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366990</v>
+        <v>369379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="D2" t="n">
-        <v>7.4</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="3">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378292</v>
+        <v>405312</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="D3" t="n">
-        <v>7.3</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="4">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382411</v>
+        <v>383305</v>
       </c>
       <c r="C4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="D4" t="n">
-        <v>8.48</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372467</v>
+        <v>378862</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6735</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="3">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5732</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="4">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12467</v>
+        <v>18862</v>
       </c>
     </row>
   </sheetData>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1051,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,24 +1085,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 3</t>
+          <t>Person 2</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -1111,50 +1111,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 11</t>
+          <t>Person 8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 11</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 13</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1163,11 +1163,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
@@ -1176,46 +1176,46 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 28</t>
+          <t>Person 22</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1228,59 +1228,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 28</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 29</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 46</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 54</t>
+          <t>Person 41</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1293,20 +1293,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 45</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1319,7 +1319,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1332,7 +1332,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1345,33 +1345,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 68</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 70</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 71</t>
+          <t>Person 68</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1384,7 +1384,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 76</t>
+          <t>Person 70</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1397,63 +1397,63 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 86</t>
+          <t>Person 71</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 92</t>
+          <t>Person 76</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 96</t>
+          <t>Person 86</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 99</t>
+          <t>Person 92</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 103</t>
+          <t>Person 96</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>5</v>
@@ -1462,13 +1462,52 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Person 99</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Person 103</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Person 111</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Person 118</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>3</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1483,7 +1522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,51 +1577,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>DONS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 20</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 34</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 29</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 41</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="H5" s="4" t="n"/>
@@ -1595,20 +1634,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>DONS</t>
@@ -1618,20 +1657,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n"/>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>GS</t>
@@ -1641,7 +1680,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1654,7 +1693,7 @@
           <t>MDCA</t>
         </is>
       </c>
-      <c r="H8" s="7" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>GO</t>
@@ -1664,15 +1703,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 54</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+          <t>Person 63</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -1687,7 +1726,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -1700,7 +1739,7 @@
           <t>MDCA</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n"/>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>SAR</t>
@@ -1710,24 +1749,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 59</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 99</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1744,358 +1783,444 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 64</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 20</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 86</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 11</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 99</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 45</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 11</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 76</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
+          <t>Person 111</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 13</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 46</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 12</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 96</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 118</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 22</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 13</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 96</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 118</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 28</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 4</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 68</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 19</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 70</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 28</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 71</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 29</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 76</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 32</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 92</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 68</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Person 70</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Person 92</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Person 103</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2282,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2182,19 +2307,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2207,19 +2332,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2232,19 +2357,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2257,19 +2382,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9951</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2282,19 +2407,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>

--- a/results_small/Res_Simulate_data_small_compromise.xlsx
+++ b/results_small/Res_Simulate_data_small_compromise.xlsx
@@ -48,20 +48,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBC94E6"/>
         <bgColor rgb="FFBC94E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9D2D6"/>
-        <bgColor rgb="FFF9D2D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,6 +62,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B3DC"/>
         <bgColor rgb="FFE6B3DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9D2D6"/>
+        <bgColor rgb="FFF9D2D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>609.3923499584198</v>
+        <v>655.3587799072266</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.782957170289149e-05</v>
       </c>
     </row>
     <row r="3">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-4.761904761904763</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1.020408163265306</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1004,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Standar</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B2" t="n">
